--- a/ApplicationTestData/AppData.xlsx
+++ b/ApplicationTestData/AppData.xlsx
@@ -1,27 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>learnseleniumetlhive@gmail.com</t>
+  </si>
+  <si>
+    <t>abcd@1234</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -41,17 +75,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -130,7 +171,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -165,7 +205,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -342,9 +381,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
